--- a/Allen_Draft/Resources/ranked_2017_2018.xlsx
+++ b/Allen_Draft/Resources/ranked_2017_2018.xlsx
@@ -29,7 +29,7 @@
     <t>FGA</t>
   </si>
   <si>
-    <t>FG%</t>
+    <t>FGP</t>
   </si>
   <si>
     <t>3P</t>
@@ -41,7 +41,7 @@
     <t>FTA</t>
   </si>
   <si>
-    <t>FT%</t>
+    <t>FTP</t>
   </si>
   <si>
     <t>TRB</t>
@@ -59,7 +59,7 @@
     <t>TOV</t>
   </si>
   <si>
-    <t>PS/G</t>
+    <t>PTS</t>
   </si>
   <si>
     <t>VORP</t>
